--- a/archive/Pulling/07-20Morning shift.xlsx
+++ b/archive/Pulling/07-20Morning shift.xlsx
@@ -14,10 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
-  <si>
-    <t>Unnamed: 0</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="37">
   <si>
     <t>Name</t>
   </si>
@@ -49,46 +46,85 @@
     <t>Rate</t>
   </si>
   <si>
-    <t>Luis,Vargas Jaquez</t>
+    <t>Miguel,Barros</t>
+  </si>
+  <si>
+    <t>Quinndel,Scott-Wright</t>
+  </si>
+  <si>
+    <t>Janeth,Falquez</t>
   </si>
   <si>
     <t>Brien,McDonnell</t>
   </si>
   <si>
+    <t>Jose,Guaman</t>
+  </si>
+  <si>
+    <t>Daquan,Bryant</t>
+  </si>
+  <si>
+    <t>Wayne,Frederick</t>
+  </si>
+  <si>
     <t>Nana,Dompo</t>
   </si>
   <si>
-    <t>Eloy,Reyes</t>
-  </si>
-  <si>
-    <t>Nancy,Ovillo</t>
-  </si>
-  <si>
-    <t>Wayne,Frederick</t>
-  </si>
-  <si>
     <t>Yave,Caba Corona</t>
   </si>
   <si>
-    <t>Aurelio,Mercedes Hernandez</t>
-  </si>
-  <si>
-    <t>Yerson,Pena</t>
+    <t>Orrin,Darnley</t>
+  </si>
+  <si>
+    <t>Curtis,Odom</t>
+  </si>
+  <si>
+    <t>Rodolfo,Morel Estevez</t>
+  </si>
+  <si>
+    <t>Audrey,Henry</t>
+  </si>
+  <si>
+    <t>David,Ojeda Herrera</t>
   </si>
   <si>
     <t>Rolando,Rodriguez</t>
   </si>
   <si>
-    <t>Rodolfo,Morel Estevez</t>
-  </si>
-  <si>
-    <t>Jerry,Davis</t>
-  </si>
-  <si>
-    <t>David,Ojeda Herrera</t>
-  </si>
-  <si>
-    <t>Audrey,Henry</t>
+    <t>Jamaal,Anderson</t>
+  </si>
+  <si>
+    <t>107.50</t>
+  </si>
+  <si>
+    <t>96.80</t>
+  </si>
+  <si>
+    <t>85.43</t>
+  </si>
+  <si>
+    <t>82.43</t>
+  </si>
+  <si>
+    <t>71.00</t>
+  </si>
+  <si>
+    <t>70.80</t>
+  </si>
+  <si>
+    <t>70.67</t>
+  </si>
+  <si>
+    <t>65.33</t>
+  </si>
+  <si>
+    <t>37.33</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>nan</t>
   </si>
 </sst>
 </file>
@@ -446,13 +482,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -483,120 +519,565 @@
       <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <v>9</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>121</v>
+      </c>
+      <c r="H2">
+        <v>94</v>
+      </c>
+      <c r="I2">
+        <v>10</v>
+      </c>
+      <c r="J2">
+        <v>3</v>
+      </c>
+      <c r="K2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="1">
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>27</v>
+      </c>
+      <c r="F3">
+        <v>48</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>113</v>
+      </c>
+      <c r="I3">
+        <v>125</v>
+      </c>
+      <c r="J3">
+        <v>171</v>
+      </c>
+      <c r="K3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4">
+        <v>66</v>
+      </c>
+      <c r="D4">
+        <v>101</v>
+      </c>
+      <c r="E4">
+        <v>98</v>
+      </c>
+      <c r="F4">
+        <v>76</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>82</v>
+      </c>
+      <c r="I4">
+        <v>84</v>
+      </c>
+      <c r="J4">
+        <v>91</v>
+      </c>
+      <c r="K4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5">
+        <v>34</v>
+      </c>
+      <c r="D5">
+        <v>129</v>
+      </c>
+      <c r="E5">
+        <v>112</v>
+      </c>
+      <c r="F5">
+        <v>91</v>
+      </c>
+      <c r="G5">
+        <v>49</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>76</v>
+      </c>
+      <c r="J5">
+        <v>86</v>
+      </c>
+      <c r="K5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6">
+        <v>45</v>
+      </c>
+      <c r="D6">
+        <v>115</v>
+      </c>
+      <c r="E6">
+        <v>115</v>
+      </c>
+      <c r="F6">
+        <v>40</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6">
+        <v>33</v>
+      </c>
+      <c r="J6">
+        <v>78</v>
+      </c>
+      <c r="K6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>43</v>
+      </c>
+      <c r="F7">
+        <v>82</v>
+      </c>
+      <c r="G7">
+        <v>65</v>
+      </c>
+      <c r="H7">
+        <v>71</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>93</v>
+      </c>
+      <c r="K7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8">
+        <v>58</v>
+      </c>
+      <c r="D8">
+        <v>106</v>
+      </c>
+      <c r="E8">
+        <v>48</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>68</v>
+      </c>
+      <c r="I9">
+        <v>40</v>
+      </c>
+      <c r="J9">
+        <v>88</v>
+      </c>
+      <c r="K9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10">
+        <v>22</v>
+      </c>
+      <c r="D10">
+        <v>50</v>
+      </c>
+      <c r="E10">
+        <v>40</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11">
+        <v>22</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13">
+        <v>10</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>6</v>
+      </c>
+      <c r="E14">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>5</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>13</v>
+      </c>
+      <c r="K15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="1">
+      <c r="G16">
+        <v>17</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
         <v>3</v>
       </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="C7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="C8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="C9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="C10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="C11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="C12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="C13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="C14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="C15" t="s">
-        <v>24</v>
+      <c r="K17" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/archive/Pulling/07-20Morning shift.xlsx
+++ b/archive/Pulling/07-20Morning shift.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mramirez\Desktop\Maximiliano Vedoya Ramirez\Dashboards development\Web\archive\Pulling\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFEB4BB6-39A9-4661-9408-3EBC8B00F9A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -49,53 +55,62 @@
     <t>Rate</t>
   </si>
   <si>
-    <t>Luis,Vargas Jaquez</t>
+    <t>Last Location</t>
+  </si>
+  <si>
+    <t>Miguel,Barros</t>
+  </si>
+  <si>
+    <t>Quinndel,Scott-Wright</t>
+  </si>
+  <si>
+    <t>Janeth,Falquez</t>
   </si>
   <si>
     <t>Brien,McDonnell</t>
   </si>
   <si>
+    <t>Daquan,Bryant</t>
+  </si>
+  <si>
+    <t>Jose,Guaman</t>
+  </si>
+  <si>
+    <t>Wayne,Frederick</t>
+  </si>
+  <si>
     <t>Nana,Dompo</t>
   </si>
   <si>
-    <t>Eloy,Reyes</t>
-  </si>
-  <si>
-    <t>Nancy,Ovillo</t>
-  </si>
-  <si>
-    <t>Wayne,Frederick</t>
-  </si>
-  <si>
     <t>Yave,Caba Corona</t>
   </si>
   <si>
-    <t>Aurelio,Mercedes Hernandez</t>
-  </si>
-  <si>
-    <t>Yerson,Pena</t>
+    <t>Orrin,Darnley</t>
+  </si>
+  <si>
+    <t>Curtis,Odom</t>
+  </si>
+  <si>
+    <t>Rodolfo,Morel Estevez</t>
+  </si>
+  <si>
+    <t>Audrey,Henry</t>
+  </si>
+  <si>
+    <t>David,Ojeda Herrera</t>
   </si>
   <si>
     <t>Rolando,Rodriguez</t>
   </si>
   <si>
-    <t>Rodolfo,Morel Estevez</t>
-  </si>
-  <si>
-    <t>Jerry,Davis</t>
-  </si>
-  <si>
-    <t>David,Ojeda Herrera</t>
-  </si>
-  <si>
-    <t>Audrey,Henry</t>
+    <t>Jamaal,Anderson</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -158,6 +173,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -204,7 +227,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -236,9 +259,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -270,6 +311,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -445,14 +504,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -460,143 +521,672 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
       <c r="C2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>12</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>3</v>
+      </c>
+      <c r="G2">
+        <v>9</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>124</v>
+      </c>
+      <c r="J2">
+        <v>94</v>
+      </c>
+      <c r="K2">
+        <v>10</v>
+      </c>
+      <c r="L2">
+        <v>3</v>
+      </c>
+      <c r="M2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
       <c r="C3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>13</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>27</v>
+      </c>
+      <c r="H3">
+        <v>49</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>128</v>
+      </c>
+      <c r="K3">
+        <v>136</v>
+      </c>
+      <c r="L3">
+        <v>175</v>
+      </c>
+      <c r="M3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
       <c r="C4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>14</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>66</v>
+      </c>
+      <c r="F4">
+        <v>101</v>
+      </c>
+      <c r="G4">
+        <v>98</v>
+      </c>
+      <c r="H4">
+        <v>76</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>83</v>
+      </c>
+      <c r="K4">
+        <v>85</v>
+      </c>
+      <c r="L4">
+        <v>93</v>
+      </c>
+      <c r="M4">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
       <c r="C5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>15</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>34</v>
+      </c>
+      <c r="F5">
+        <v>129</v>
+      </c>
+      <c r="G5">
+        <v>112</v>
+      </c>
+      <c r="H5">
+        <v>91</v>
+      </c>
+      <c r="I5">
+        <v>49</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>79</v>
+      </c>
+      <c r="L5">
+        <v>92</v>
+      </c>
+      <c r="M5">
+        <v>83.71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
       <c r="C6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>16</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>43</v>
+      </c>
+      <c r="H6">
+        <v>82</v>
+      </c>
+      <c r="I6">
+        <v>66</v>
+      </c>
+      <c r="J6">
+        <v>77</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>98</v>
+      </c>
+      <c r="M6">
+        <v>73.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
       <c r="C7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>17</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>49</v>
+      </c>
+      <c r="F7">
+        <v>115</v>
+      </c>
+      <c r="G7">
+        <v>116</v>
+      </c>
+      <c r="H7">
+        <v>40</v>
+      </c>
+      <c r="I7">
+        <v>2</v>
+      </c>
+      <c r="J7">
+        <v>2</v>
+      </c>
+      <c r="K7">
+        <v>33</v>
+      </c>
+      <c r="L7">
+        <v>80</v>
+      </c>
+      <c r="M7">
+        <v>72.17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
       <c r="C8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>18</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>58</v>
+      </c>
+      <c r="F8">
+        <v>106</v>
+      </c>
+      <c r="G8">
+        <v>48</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>70.67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
       <c r="C9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>19</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>68</v>
+      </c>
+      <c r="K9">
+        <v>40</v>
+      </c>
+      <c r="L9">
+        <v>94</v>
+      </c>
+      <c r="M9">
+        <v>67.33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
       <c r="C10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>20</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>25</v>
+      </c>
+      <c r="F10">
+        <v>51</v>
+      </c>
+      <c r="G10">
+        <v>40</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>38.67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
       <c r="C11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>21</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>22</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
       <c r="C12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>22</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
       <c r="C13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>23</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>10</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
       <c r="C14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>24</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>6</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>5</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>12</v>
+      </c>
+      <c r="I16">
+        <v>17</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
